--- a/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
+++ b/Mifos Automation Excels/Loan Product/485-RBI-EPP-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>productname</t>
   </si>
@@ -107,9 +107,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>kar2</t>
-  </si>
-  <si>
     <t>RBI (India)</t>
   </si>
   <si>
@@ -147,6 +144,78 @@
   </si>
   <si>
     <t>RBI (India) - Equal Principal payments - Declining Balance - Daily-Enable Check box Recalculate Interest-Interest recalculation compounding on NONE - Advance Reduce number of installments- Pre Calculate Till preclosure date- frequency for recalculate Outstanding Principal Same as repayment period- Checkbox Enable Multiple Disbursals yes - Maximum Tranche count 1</t>
+  </si>
+  <si>
+    <t>fundsource</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>loanprotfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan portfolio </t>
+  </si>
+  <si>
+    <t>interestreceivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Receivable </t>
+  </si>
+  <si>
+    <t>penaltiesreceivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalties Receivable </t>
+  </si>
+  <si>
+    <t>transferinsuspense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Suspence </t>
+  </si>
+  <si>
+    <t>feesreceivable</t>
+  </si>
+  <si>
+    <t>Fees Receivable</t>
+  </si>
+  <si>
+    <t>incomefrominterest</t>
+  </si>
+  <si>
+    <t>Income from interest</t>
+  </si>
+  <si>
+    <t>incomefrompenalties</t>
+  </si>
+  <si>
+    <t>Income from penalties</t>
+  </si>
+  <si>
+    <t>incomefromfees</t>
+  </si>
+  <si>
+    <t>Income from fees</t>
+  </si>
+  <si>
+    <t>incomefromrecoveryrepayments</t>
+  </si>
+  <si>
+    <t>Income from recovery repayments</t>
+  </si>
+  <si>
+    <t>loseswrittenoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses Writtenoff </t>
+  </si>
+  <si>
+    <t>overpaymentliability</t>
+  </si>
+  <si>
+    <t>Overpayment Liability</t>
   </si>
 </sst>
 </file>
@@ -170,6 +239,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -224,6 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -545,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -553,15 +624,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
+      <c r="B3" s="1">
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -614,7 +685,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -622,10 +693,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -657,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -673,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,10 +781,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,15 +813,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
@@ -758,10 +829,106 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +942,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -788,8 +955,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
